--- a/students.xlsx
+++ b/students.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>firstname</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>girl</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Kolomoyskij</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Stashevskaja</t>
   </si>
 </sst>
 </file>
@@ -150,6 +162,28 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
